--- a/biology/Botanique/Pinguicula_elizabethiae/Pinguicula_elizabethiae.xlsx
+++ b/biology/Botanique/Pinguicula_elizabethiae/Pinguicula_elizabethiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinguicula elizabethiae est une espèce de plante vivace insectivore de la famille des Lentibulariaceae. Elle est originaire des États mexicains de Querétaro et Hidalgo. 
 En été poussent des feuilles succulentes mesurant jusqu'à 5 centimètres de long, recouvertes par des glandes mucilagineuses qui attirent, piègent et digèrent des arthropodes. Les proies apportent des nutriments qui servent à compléter l'apport en nutriments dont la plante à besoin, car celle-ci pousse dans des sols qui ne lui en apportent pas suffisamment. En hiver, la plante forme une rosette non carnivore de petites feuilles charnues qui conserve l'énergie, car il y a peu de nourriture disponible. Des fleurs pourpres uniques apparaissent entre juillet et octobre sur les tiges dressées jusqu'à 75 millimètres de long.
